--- a/data/laminaria.xlsx
+++ b/data/laminaria.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tinap\OneDrive\Desktop\Master's\Scripts\Intro-R-Coastal-Research\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF043C1-78B4-4417-B92C-63EB350E1234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="laminaria" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="laminaria" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,118 +27,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="28">
   <si>
-    <t xml:space="preserve">region</t>
+    <t>region</t>
   </si>
   <si>
-    <t xml:space="preserve">site</t>
+    <t>site</t>
   </si>
   <si>
-    <t xml:space="preserve">Ind</t>
+    <t>Ind</t>
   </si>
   <si>
-    <t xml:space="preserve">blade_weight</t>
+    <t>blade_weight</t>
   </si>
   <si>
-    <t xml:space="preserve">blade_length</t>
+    <t>blade_length</t>
   </si>
   <si>
-    <t xml:space="preserve">blade_thickness</t>
+    <t>blade_thickness</t>
   </si>
   <si>
-    <t xml:space="preserve">stipe_mass</t>
+    <t>stipe_mass</t>
   </si>
   <si>
-    <t xml:space="preserve">stipe_length</t>
+    <t>stipe_length</t>
   </si>
   <si>
-    <t xml:space="preserve">stipe_diameter</t>
+    <t>stipe_diameter</t>
   </si>
   <si>
-    <t xml:space="preserve">digits</t>
+    <t>digits</t>
   </si>
   <si>
-    <t xml:space="preserve">thallus_mass</t>
+    <t>thallus_mass</t>
   </si>
   <si>
-    <t xml:space="preserve">total_length</t>
+    <t>total_length</t>
   </si>
   <si>
-    <t xml:space="preserve">WC</t>
+    <t>WC</t>
   </si>
   <si>
-    <t xml:space="preserve">Kommetjie</t>
+    <t>Kommetjie</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">FB</t>
+    <t>FB</t>
   </si>
   <si>
-    <t xml:space="preserve">Bordjiestif North</t>
+    <t>Bordjiestif North</t>
   </si>
   <si>
-    <t xml:space="preserve">Olifantsbos</t>
+    <t>Olifantsbos</t>
   </si>
   <si>
-    <t xml:space="preserve">Buffels</t>
+    <t>Buffels</t>
   </si>
   <si>
     <t xml:space="preserve">Buffels South </t>
   </si>
   <si>
-    <t xml:space="preserve">Miller's Point</t>
+    <t>Miller's Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Baboon Rock</t>
+    <t>Baboon Rock</t>
   </si>
   <si>
-    <t xml:space="preserve">Betty's Bay</t>
+    <t>Betty's Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">Roman Rock</t>
+    <t>Roman Rock</t>
   </si>
   <si>
-    <t xml:space="preserve">A-Frame</t>
+    <t>A-Frame</t>
   </si>
   <si>
-    <t xml:space="preserve">Batsata Rock</t>
+    <t>Batsata Rock</t>
   </si>
   <si>
-    <t xml:space="preserve">Sea Point</t>
+    <t>Sea Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocky Bank</t>
+    <t>Rocky Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +132,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -153,5438 +140,5709 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
+    <col min="1" max="1" width="6.36328125"/>
+    <col min="2" max="2" width="14.1796875"/>
+    <col min="3" max="3" width="3.90625"/>
+    <col min="4" max="4" width="11.7265625"/>
+    <col min="5" max="5" width="11.453125"/>
+    <col min="6" max="6" width="14.26953125"/>
+    <col min="7" max="7" width="10.6328125"/>
+    <col min="9" max="9" width="13.1796875"/>
+    <col min="10" max="10" width="5.6328125"/>
+    <col min="11" max="11" width="12.1796875"/>
+    <col min="12" max="12" width="10.6328125"/>
+    <col min="13" max="1025" width="11.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>1.9</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>160</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>1.5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>120</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>56</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>256</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>1.5</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>120</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1.4</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>2.25</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>149</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>68.5</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>3750</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>269</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4">
         <v>110</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H4">
         <v>97</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>13</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>1700</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>207</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>159</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>2.6</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>167</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>60</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>3600</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>326</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6">
         <v>149</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>146</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>73</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
         <v>5100</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>295</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>1.6</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>107</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>1.75</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>2.9</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>161</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>63</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>17</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>4500</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>268</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>0.65</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>104</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>0.75</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>110</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>51</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>1400</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>214</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>0.95</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>111</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>1.25</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>1.6</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>136</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>56</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>11</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>2550</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>247</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E10">
         <v>178</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>2.5</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>4.2</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>176</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>76</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>6500</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>354</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>1.75</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>145</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>0.75</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>82</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>40</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>19</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>2500</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>227</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>2.35</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>146</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>1.75</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>1.25</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>118</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>46</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>3600</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>264</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>1.7</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>116</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>1.25</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>117</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>46.5</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>23</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>3220</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>233</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>110</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>112</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>39.5</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>20</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>2400</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>222</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E15">
         <v>136</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>1.95</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>132</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>54</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>24</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>4400</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>268</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>124</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>1.25</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>1.3</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>119</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>45</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>18</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>3300</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>243</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>2.4</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>121</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>1.25</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>2.6</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>165</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>55</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>22</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>5000</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>286</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>1.3</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>102</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>1.25</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>112</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>50</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>2550</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>214</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>1.7</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>149</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>1.35</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>113</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>50</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>11</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>3050</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>262</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
         <v>1.35</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>112</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>1.05</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>92</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>49.5</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>17</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>2400</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>204</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>1.85</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>139</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>1.5</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>1.8</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>109</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>66</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>26</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>3650</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>248</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>1.25</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>147</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>1.2</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>1.75</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>123</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>58</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>7</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>3000</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>270</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>3.25</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>172</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>1.5</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>160</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>65</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23">
         <v>25</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>6250</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>332</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>3.35</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>205</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>160</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>67</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24">
         <v>16</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>8100</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>443</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>1.4</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>136</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>1.25</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>199</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>56.5</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>11</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>4400</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>335</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E26">
         <v>173</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>1.5</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>2.25</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>136</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>58</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>13</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>4800</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>309</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>1.75</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>150</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>1.25</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>1.7</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>130</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>47</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>29</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>2950</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>258</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>9</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>1.6</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>124</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>1.25</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>181</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>62</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K28" s="0" t="n">
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
         <v>4600</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>305</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>0.9</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>121</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>1.65</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>138</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>54</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>8</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>2550</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>259</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>11</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>2.25</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>169</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>1.4</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="G30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H30">
         <v>114</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>65.4</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="I30">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J30">
         <v>16</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>4550</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>283</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>1.375</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>150</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>1.35</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>1.25</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>105</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>49</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" s="0" t="n">
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
         <v>2625</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>255</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>1.4</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>155</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G32" s="0" t="n">
+      <c r="F32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G32">
         <v>1.25</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>118</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>45</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K32" s="0" t="n">
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
         <v>2650</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32">
         <v>268</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>1.65</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>158</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>1.2</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>98</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>42</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>22</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>2650</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33">
         <v>256</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>127</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>1.25</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>132</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>39</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>17</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>2250</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>259</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>1.5</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>156</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>1.25</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>128</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>46</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>14</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>2750</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35">
         <v>284</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>2.25</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>142</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>1.9</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>1.8</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>133</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>49</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>16</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>4050</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36">
         <v>275</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>7</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="D37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E37">
         <v>133</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>0.9</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37">
         <v>85</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37">
         <v>45</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37">
         <v>21</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37">
         <v>3100</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37">
         <v>218</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>8</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>1.875</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>152</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38">
         <v>1.375</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38">
         <v>110</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38">
         <v>48</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38">
         <v>23</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>3250</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38">
         <v>262</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>2.25</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>170</v>
       </c>
-      <c r="F39" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G39" s="0" t="n">
+      <c r="F39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G39">
         <v>1.36</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39">
         <v>120</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39">
         <v>47</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39">
         <v>23</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39">
         <v>3560</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39">
         <v>286</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>0.8</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>133</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>1.375</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40">
         <v>153</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40">
         <v>46</v>
       </c>
-      <c r="J40" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K40" s="0" t="n">
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="K40">
         <v>2175</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40">
         <v>286</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>11</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>1.7</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>123</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>1.3</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41">
         <v>115</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41">
         <v>50</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41">
         <v>24</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41">
         <v>3000</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41">
         <v>238</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D42" s="0" t="n">
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
         <v>0.63</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>136</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42">
         <v>0.85</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42">
         <v>0.78</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42">
         <v>109</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42">
         <v>39</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K42" s="0" t="n">
+      <c r="J42">
+        <v>12</v>
+      </c>
+      <c r="K42">
         <v>1410</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42">
         <v>245</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>2.25</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>147</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43">
         <v>1.125</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43">
         <v>108</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43">
         <v>46</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43">
         <v>25</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43">
         <v>3375</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43">
         <v>255</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>1.5</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>118</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>0.7</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44">
         <v>87</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44">
         <v>40</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44">
         <v>19</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>2200</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44">
         <v>205</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>1.8</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>107</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>1.4</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>0.875</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45">
         <v>91</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45">
         <v>46</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45">
         <v>21</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45">
         <v>2675</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45">
         <v>198</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>2.25</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>137</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46">
         <v>1.8</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46">
         <v>1.75</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46">
         <v>138</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46">
         <v>55</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46">
         <v>18</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46">
         <v>4000</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46">
         <v>275</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>2.5</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>141</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>1.3</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47">
         <v>1.25</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47">
         <v>104</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47">
         <v>47</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47">
         <v>16</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47">
         <v>3750</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47">
         <v>245</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>1.4</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>127</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>1.95</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48">
         <v>0.75</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>72</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48">
         <v>44</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48">
         <v>17</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48">
         <v>2150</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48">
         <v>199</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="D49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E49">
         <v>126</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49">
         <v>1.3</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49">
         <v>0.875</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>102</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49">
         <v>40</v>
       </c>
-      <c r="J49" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K49" s="0" t="n">
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
         <v>1975</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="L49">
         <v>228</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>1.25</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>130</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>1.7</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50">
         <v>0.9</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>109</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50">
         <v>40</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50">
         <v>13</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50">
         <v>2150</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="L50">
         <v>239</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>2.25</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>134</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51">
         <v>1.35</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="H51" s="0" t="n">
+      <c r="G51">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="H51">
         <v>113</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51">
         <v>45</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51">
         <v>18</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51">
         <v>3525</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L51">
         <v>247</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="0" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>2.375</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>153</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>1.2</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52">
         <v>1.4</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>113</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52">
         <v>52</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52">
         <v>18</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52">
         <v>3775</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="L52">
         <v>266</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>1.875</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>108</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>1.2</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>0.64</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>75</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53">
         <v>40</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53">
         <v>26</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53">
         <v>2515</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="L53">
         <v>183</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D54" s="0" t="n">
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
         <v>1.9</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>157</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>0.875</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>95</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54">
         <v>39</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54">
         <v>17</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54">
         <v>2775</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="L54">
         <v>252</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>1.75</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>126</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55">
         <v>8.4</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>0.5</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>120</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55">
         <v>37</v>
       </c>
-      <c r="J55" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K55" s="0" t="n">
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55">
         <v>2250</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="L55">
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>133</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>5.2</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56">
         <v>0.5</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56">
         <v>78</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56">
         <v>37</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56">
         <v>19</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56">
         <v>2500</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="L56">
         <v>211</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>1.5</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>125</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>2.35</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57">
         <v>0.5</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57">
         <v>90</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57">
         <v>38.5</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57">
         <v>14</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57">
         <v>2000</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="L57">
         <v>215</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>0.5</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>103</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58">
         <v>4.2</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58">
         <v>0.5</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58">
         <v>83</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58">
         <v>37</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58">
         <v>7</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58">
         <v>1000</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="L58">
         <v>186</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>1.5</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>121</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59">
         <v>5.88</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59">
         <v>0.3</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59">
         <v>58</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59">
         <v>31</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59">
         <v>13</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59">
         <v>1800</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="L59">
         <v>179</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>6</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>1.5</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>160</v>
       </c>
-      <c r="F60" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="G60" s="0" t="n">
+      <c r="F60">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G60">
         <v>1.25</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60">
         <v>118</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60">
         <v>42</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60">
         <v>13</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60">
         <v>2500</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="L60">
         <v>268</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>7</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>1.25</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>127</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61">
         <v>0.51</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61">
         <v>67</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61">
         <v>35</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61">
         <v>16</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61">
         <v>1760</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="L61">
         <v>194</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>8</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>1.3</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>119</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>6.2</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62">
         <v>0.75</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62">
         <v>88</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62">
         <v>36</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62">
         <v>11</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62">
         <v>2050</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="L62">
         <v>207</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>10</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>109</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63">
         <v>5.8</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63">
         <v>0.6</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63">
         <v>70</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63">
         <v>34</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63">
         <v>14</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63">
         <v>1500</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="L63">
         <v>167</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="0" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>1.25</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>110</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>1.25</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>0.13</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64">
         <v>36</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64">
         <v>32.4</v>
       </c>
-      <c r="J64" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K64" s="0" t="n">
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
         <v>1380</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64">
         <v>146</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="0" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>0.877</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>147</v>
       </c>
-      <c r="F65" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G65" s="0" t="n">
+      <c r="F65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G65">
         <v>0.625</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65">
         <v>100</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65">
         <v>36</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65">
         <v>19</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65">
         <v>1502</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65">
         <v>147</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="0" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>3</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>2.13</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>130</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>5.42</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>0.38</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>60</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66">
         <v>33</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66">
         <v>19</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66">
         <v>2510</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66">
         <v>190</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="0" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>2.375</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>134</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>3.9</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>0.75</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67">
         <v>85</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67">
         <v>37</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67">
         <v>14</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67">
         <v>3125</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67">
         <v>219</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>2.65</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>137</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>5.15</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68">
         <v>0.5</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68">
         <v>66</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68">
         <v>39</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68">
         <v>19</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68">
         <v>3150</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68">
         <v>203</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="0" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>6</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>2.62</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>146</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69">
         <v>5.9</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>0.75</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69">
         <v>107</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69">
         <v>35.5</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69">
         <v>16</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69">
         <v>3370</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69">
         <v>253</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="0" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>7</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>0.625</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>104</v>
       </c>
-      <c r="F70" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G70" s="0" t="n">
+      <c r="F70">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G70">
         <v>0.25</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70">
         <v>53</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70">
         <v>28.5</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70">
         <v>9</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70">
         <v>875</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="L70">
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="0" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>8</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="D71">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E71">
         <v>110</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71">
         <v>4.7</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71">
         <v>0.125</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71">
         <v>35</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71">
         <v>31</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="J71">
         <v>17</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="K71">
         <v>337</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="L71">
         <v>145</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="0" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>9</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>0.125</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>160</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72">
         <v>0.25</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72">
         <v>51</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72">
         <v>26</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J72">
         <v>11</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="K72">
         <v>375</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="L72">
         <v>211</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="0" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>10</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>0.23</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>132</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73">
         <v>3.67</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73">
         <v>0.375</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73">
         <v>76</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73">
         <v>27</v>
       </c>
-      <c r="J73" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K73" s="0" t="n">
+      <c r="J73">
+        <v>15</v>
+      </c>
+      <c r="K73">
         <v>605</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="L73">
         <v>208</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="0" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>11</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>0.625</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>160</v>
       </c>
-      <c r="F74" s="0" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="G74" s="0" t="n">
+      <c r="F74">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G74">
         <v>0.875</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74">
         <v>97</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74">
         <v>36</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74">
         <v>14</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74">
         <v>1500</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="L74">
         <v>257</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="0" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D75" s="0" t="n">
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
         <v>0.215</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>149</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75">
         <v>5.9</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75">
         <v>0.25</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75">
         <v>53</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75">
         <v>29.5</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75">
         <v>18</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75">
         <v>465</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="L75">
         <v>202</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="0" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>0.63</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>125</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76">
         <v>3.1</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76">
         <v>107</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="I76">
         <v>47.7</v>
       </c>
-      <c r="J76" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K76" s="0" t="n">
+      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76">
         <v>1630</v>
       </c>
-      <c r="L76" s="0" t="n">
+      <c r="L76">
         <v>232</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="0" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>2</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>2.125</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>135</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77">
         <v>2.7</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77">
         <v>1.625</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77">
         <v>164</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="I77">
         <v>44.6</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="J77">
         <v>19</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="K77">
         <v>3750</v>
       </c>
-      <c r="L77" s="0" t="n">
+      <c r="L77">
         <v>299</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="0" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>3</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>1.625</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>170</v>
       </c>
-      <c r="F78" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="G78" s="0" t="n">
+      <c r="F78">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G78">
         <v>1.6</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78">
         <v>143</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="I78">
         <v>47.7</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="J78">
         <v>19</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78">
         <v>3225</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="L78">
         <v>313</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="0" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>1.375</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>170</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79">
         <v>3.15</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79">
         <v>1.35</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79">
         <v>130</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="I79">
         <v>35</v>
       </c>
-      <c r="J79" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K79" s="0" t="n">
+      <c r="J79">
+        <v>15</v>
+      </c>
+      <c r="K79">
         <v>1950</v>
       </c>
-      <c r="L79" s="0" t="n">
+      <c r="L79">
         <v>265</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="0" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>5</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>3.25</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>192</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80">
         <v>2.9</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80">
         <v>2.35</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80">
         <v>170</v>
       </c>
-      <c r="I80" s="0" t="n">
+      <c r="I80">
         <v>57.3</v>
       </c>
-      <c r="J80" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K80" s="0" t="n">
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80">
         <v>6000</v>
       </c>
-      <c r="L80" s="0" t="n">
+      <c r="L80">
         <v>396</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="0" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>6</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>1.75</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>160</v>
       </c>
-      <c r="F81" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G81" s="0" t="n">
+      <c r="F81">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G81">
         <v>1.25</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81">
         <v>112</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81">
         <v>50.9</v>
       </c>
-      <c r="J81" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K81" s="0" t="n">
+      <c r="J81">
+        <v>15</v>
+      </c>
+      <c r="K81">
         <v>3000</v>
       </c>
-      <c r="L81" s="0" t="n">
+      <c r="L81">
         <v>272</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="0" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>7</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>1.95</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>150</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82">
         <v>2.7</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>1.5</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82">
         <v>138</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="I82">
         <v>47.7</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="J82">
         <v>17</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="K82">
         <v>3450</v>
       </c>
-      <c r="L82" s="0" t="n">
+      <c r="L82">
         <v>288</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="0" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>8</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>3.5</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>186</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>3.4</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83">
         <v>2.1</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83">
         <v>156</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="I83">
         <v>54.1</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83">
         <v>24</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83">
         <v>5600</v>
       </c>
-      <c r="L83" s="0" t="n">
+      <c r="L83">
         <v>342</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="0" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>9</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>135</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>1.6</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84">
         <v>0.85</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84">
         <v>190</v>
       </c>
-      <c r="I84" s="0" t="n">
+      <c r="I84">
         <v>41.4</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84">
         <v>16</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84">
         <v>1850</v>
       </c>
-      <c r="L84" s="0" t="n">
+      <c r="L84">
         <v>325</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="0" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>10</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>2.5</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>153</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>3.6</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85">
         <v>1.25</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85">
         <v>127</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="I85">
         <v>44.6</v>
       </c>
-      <c r="J85" s="0" t="n">
+      <c r="J85">
         <v>18</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K85">
         <v>3750</v>
       </c>
-      <c r="L85" s="0" t="n">
+      <c r="L85">
         <v>280</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="0" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>11</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="D86">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E86">
         <v>148</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86">
         <v>2</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86">
         <v>1.2</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86">
         <v>100</v>
       </c>
-      <c r="I86" s="0" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J86" s="0" t="n">
+      <c r="I86">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J86">
         <v>19</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86">
         <v>1750</v>
       </c>
-      <c r="L86" s="0" t="n">
+      <c r="L86">
         <v>225</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="0" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D87" s="0" t="n">
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
         <v>0.75</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>127</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87">
         <v>3</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87">
         <v>0.625</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87">
         <v>97</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="I87">
         <v>44.6</v>
       </c>
-      <c r="J87" s="0" t="n">
+      <c r="J87">
         <v>14</v>
       </c>
-      <c r="K87" s="0" t="n">
+      <c r="K87">
         <v>1375</v>
       </c>
-      <c r="L87" s="0" t="n">
+      <c r="L87">
         <v>224</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="0" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>115</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88">
         <v>7.35</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88">
         <v>0.75</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88">
         <v>92</v>
       </c>
-      <c r="I88" s="0" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K88" s="0" t="n">
+      <c r="I88">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J88">
+        <v>15</v>
+      </c>
+      <c r="K88">
         <v>2750</v>
       </c>
-      <c r="L88" s="0" t="n">
+      <c r="L88">
         <v>207</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="0" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>2</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>2.1</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>100</v>
       </c>
-      <c r="F89" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="G89" s="0" t="n">
+      <c r="F89">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G89">
         <v>1</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89">
         <v>113</v>
       </c>
-      <c r="I89" s="0" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J89" s="0" t="n">
+      <c r="I89">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J89">
         <v>16</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89">
         <v>3100</v>
       </c>
-      <c r="L89" s="0" t="n">
+      <c r="L89">
         <v>213</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="0" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>1.38</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>102</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90">
         <v>5.8</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90">
         <v>0.88</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90">
         <v>107</v>
       </c>
-      <c r="I90" s="0" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K90" s="0" t="n">
+      <c r="I90">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J90">
+        <v>15</v>
+      </c>
+      <c r="K90">
         <v>2260</v>
       </c>
-      <c r="L90" s="0" t="n">
+      <c r="L90">
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="0" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>6</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>2.13</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>113</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91">
         <v>6.1</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91">
         <v>0.87</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91">
         <v>95</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91">
         <v>44</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91">
         <v>18</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K91">
         <v>3000</v>
       </c>
-      <c r="L91" s="0" t="n">
+      <c r="L91">
         <v>208</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="0" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>7</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>2.37</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>115</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92">
         <v>7.3</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92">
         <v>0.83</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92">
         <v>99</v>
       </c>
-      <c r="I92" s="0" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J92" s="0" t="n">
+      <c r="I92">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J92">
         <v>28</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92">
         <v>3200</v>
       </c>
-      <c r="L92" s="0" t="n">
+      <c r="L92">
         <v>214</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="0" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>8</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>3.05</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>137</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93">
         <v>8</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93">
         <v>0.88</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93">
         <v>87</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93">
         <v>39.6</v>
       </c>
-      <c r="J93" s="0" t="n">
+      <c r="J93">
         <v>24</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93">
         <v>3930</v>
       </c>
-      <c r="L93" s="0" t="n">
+      <c r="L93">
         <v>224</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="0" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>9</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>2.9</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>138</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94">
         <v>8</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H94" s="0" t="n">
+      <c r="G94">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H94">
         <v>101</v>
       </c>
-      <c r="I94" s="0" t="n">
+      <c r="I94">
         <v>42</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="J94">
         <v>19</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="K94">
         <v>4000</v>
       </c>
-      <c r="L94" s="0" t="n">
+      <c r="L94">
         <v>239</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="0" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>10</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>2.5</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>126</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95">
         <v>0.1</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95">
         <v>0.75</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95">
         <v>81</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95">
         <v>37.5</v>
       </c>
-      <c r="J95" s="0" t="n">
+      <c r="J95">
         <v>24</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95">
         <v>3250</v>
       </c>
-      <c r="L95" s="0" t="n">
+      <c r="L95">
         <v>207</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="0" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>11</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E96" s="0" t="n">
+      <c r="D96">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E96">
         <v>126</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96">
         <v>7.2</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96">
         <v>0.63</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96">
         <v>84</v>
       </c>
-      <c r="I96" s="0" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J96" s="0" t="n">
+      <c r="I96">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J96">
         <v>25</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96">
         <v>2890</v>
       </c>
-      <c r="L96" s="0" t="n">
+      <c r="L96">
         <v>210</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="0" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D97" s="0" t="n">
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
         <v>2.87</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>138</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97">
         <v>7.4</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97">
         <v>0.49</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97">
         <v>60</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97">
         <v>36.4</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="J97">
         <v>24</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97">
         <v>3500</v>
       </c>
-      <c r="L97" s="0" t="n">
+      <c r="L97">
         <v>211</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="0" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>13</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>2.86</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>107</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98">
         <v>9.1</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98">
         <v>0.62</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98">
         <v>75</v>
       </c>
-      <c r="I98" s="0" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J98" s="0" t="n">
+      <c r="I98">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J98">
         <v>22</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="K98">
         <v>3480</v>
       </c>
-      <c r="L98" s="0" t="n">
+      <c r="L98">
         <v>182</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="0" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>1.37</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>114</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99">
         <v>6.4</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99">
         <v>0.2</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99">
         <v>34</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99">
         <v>3.18</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="J99">
         <v>18</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99">
         <v>1570</v>
       </c>
-      <c r="L99" s="0" t="n">
+      <c r="L99">
         <v>148</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="0" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>0.8</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>134</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100">
         <v>5.5</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100">
         <v>0.53</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100">
         <v>99</v>
       </c>
-      <c r="I100" s="0" t="n">
+      <c r="I100">
         <v>3.1</v>
       </c>
-      <c r="J100" s="0" t="n">
+      <c r="J100">
         <v>10</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100">
         <v>1330</v>
       </c>
-      <c r="L100" s="0" t="n">
+      <c r="L100">
         <v>233</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="0" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>4</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>1.2</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>110</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101">
         <v>1.2</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101">
         <v>1.3</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101">
         <v>90</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101">
         <v>4.82</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101">
         <v>21</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101">
         <v>2500</v>
       </c>
-      <c r="L101" s="0" t="n">
+      <c r="L101">
         <v>200</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="0" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>1.62</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>134</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102">
         <v>6.9</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102">
         <v>0.53</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102">
         <v>66</v>
       </c>
-      <c r="I102" s="0" t="n">
+      <c r="I102">
         <v>3.42</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="J102">
         <v>20</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="K102">
         <v>2150</v>
       </c>
-      <c r="L102" s="0" t="n">
+      <c r="L102">
         <v>200</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="0" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>6</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>2.8</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>170</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103">
         <v>1.2</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103">
         <v>0.9</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103">
         <v>91</v>
       </c>
-      <c r="I103" s="0" t="n">
+      <c r="I103">
         <v>4.29</v>
       </c>
-      <c r="J103" s="0" t="n">
+      <c r="J103">
         <v>17</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103">
         <v>3700</v>
       </c>
-      <c r="L103" s="0" t="n">
+      <c r="L103">
         <v>261</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="0" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>7</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>0.75</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>106</v>
       </c>
-      <c r="F104" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G104" s="0" t="n">
+      <c r="F104">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G104">
         <v>0.25</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104">
         <v>60</v>
       </c>
-      <c r="I104" s="0" t="n">
+      <c r="I104">
         <v>2.7</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="J104">
         <v>8</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104">
         <v>1000</v>
       </c>
-      <c r="L104" s="0" t="n">
+      <c r="L104">
         <v>166</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="0" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>8</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E105" s="0" t="n">
+      <c r="D105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E105">
         <v>111</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105">
         <v>5</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105">
         <v>0.5</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105">
         <v>74</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="I105">
         <v>3.5</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="J105">
         <v>9</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="K105">
         <v>1600</v>
       </c>
-      <c r="L105" s="0" t="n">
+      <c r="L105">
         <v>185</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="0" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
         <v>24</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>9</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>1.25</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>131</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106">
         <v>5</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106">
         <v>0.25</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106">
         <v>51</v>
       </c>
-      <c r="I106" s="0" t="n">
+      <c r="I106">
         <v>2.9</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="J106">
         <v>9</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="K106">
         <v>1500</v>
       </c>
-      <c r="L106" s="0" t="n">
+      <c r="L106">
         <v>182</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="0" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>10</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>0.88</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>128</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107">
         <v>5.3</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107">
         <v>0.37</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107">
         <v>61</v>
       </c>
-      <c r="I107" s="0" t="n">
+      <c r="I107">
         <v>3.52</v>
       </c>
-      <c r="J107" s="0" t="n">
+      <c r="J107">
         <v>14</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107">
         <v>1250</v>
       </c>
-      <c r="L107" s="0" t="n">
+      <c r="L107">
         <v>189</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="0" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>11</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>1.3</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>120</v>
       </c>
-      <c r="F108" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G108" s="0" t="n">
+      <c r="F108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G108">
         <v>0.19</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108">
         <v>45</v>
       </c>
-      <c r="I108" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J108" s="0" t="n">
+      <c r="I108">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J108">
         <v>13</v>
       </c>
-      <c r="K108" s="0" t="n">
+      <c r="K108">
         <v>1490</v>
       </c>
-      <c r="L108" s="0" t="n">
+      <c r="L108">
         <v>165</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="0" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D109" s="0" t="n">
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
         <v>0.43</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>100</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G109" s="0" t="n">
+      <c r="F109">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G109">
         <v>0.38</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109">
         <v>71</v>
       </c>
-      <c r="I109" s="0" t="n">
+      <c r="I109">
         <v>2.9</v>
       </c>
-      <c r="J109" s="0" t="n">
+      <c r="J109">
         <v>11</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109">
         <v>810</v>
       </c>
-      <c r="L109" s="0" t="n">
+      <c r="L109">
         <v>171</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="0" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>13</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>0.95</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>123</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110">
         <v>5.9</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110">
         <v>0.27</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110">
         <v>53</v>
       </c>
-      <c r="I110" s="0" t="n">
+      <c r="I110">
         <v>3.26</v>
       </c>
-      <c r="J110" s="0" t="n">
+      <c r="J110">
         <v>9</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110">
         <v>1220</v>
       </c>
-      <c r="L110" s="0" t="n">
+      <c r="L110">
         <v>176</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="0" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>0.8</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>125</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111">
         <v>0.11</v>
       </c>
-      <c r="G111" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H111" s="0" t="n">
+      <c r="G111">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H111">
         <v>110</v>
       </c>
-      <c r="I111" s="0" t="n">
+      <c r="I111">
         <v>4.05</v>
       </c>
-      <c r="J111" s="0" t="n">
+      <c r="J111">
         <v>8</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111">
         <v>1880</v>
       </c>
-      <c r="L111" s="0" t="n">
+      <c r="L111">
         <v>233</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="0" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>2</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E112" s="0" t="n">
+      <c r="D112">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E112">
         <v>160</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112">
         <v>0.6</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112">
         <v>0.25</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112">
         <v>50</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112">
         <v>3.7</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112">
         <v>11</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112">
         <v>4000</v>
       </c>
-      <c r="L112" s="0" t="n">
+      <c r="L112">
         <v>224</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="0" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>4</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>2.64</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>186</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113">
         <v>0.13</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113">
         <v>1.26</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113">
         <v>104</v>
       </c>
-      <c r="I113" s="0" t="n">
+      <c r="I113">
         <v>4.7</v>
       </c>
-      <c r="J113" s="0" t="n">
+      <c r="J113">
         <v>11</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113">
         <v>3900</v>
       </c>
-      <c r="L113" s="0" t="n">
+      <c r="L113">
         <v>290</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="0" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>6</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>180</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114">
         <v>0.6</v>
       </c>
-      <c r="G114" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H114" s="0" t="n">
+      <c r="G114">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H114">
         <v>56</v>
       </c>
-      <c r="I114" s="0" t="n">
+      <c r="I114">
         <v>3.15</v>
       </c>
-      <c r="J114" s="0" t="n">
+      <c r="J114">
         <v>11</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114">
         <v>1280</v>
       </c>
-      <c r="L114" s="0" t="n">
+      <c r="L114">
         <v>236</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="0" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>7</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>1.02</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>179</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115">
         <v>0.48</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115">
         <v>0.85</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115">
         <v>98</v>
       </c>
-      <c r="I115" s="0" t="n">
+      <c r="I115">
         <v>3.9</v>
       </c>
-      <c r="J115" s="0" t="n">
+      <c r="J115">
         <v>8</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115">
         <v>1874</v>
       </c>
-      <c r="L115" s="0" t="n">
+      <c r="L115">
         <v>277</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="0" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>8</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>2.14</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>186</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116">
         <v>0.1</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116">
         <v>1.25</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116">
         <v>104</v>
       </c>
-      <c r="I116" s="0" t="n">
+      <c r="I116">
         <v>4.5</v>
       </c>
-      <c r="J116" s="0" t="n">
+      <c r="J116">
         <v>14</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116">
         <v>3390</v>
       </c>
-      <c r="L116" s="0" t="n">
+      <c r="L116">
         <v>290</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="0" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
         <v>25</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>9</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>0.87</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>128</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117">
         <v>0.8</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117">
         <v>0.63</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117">
         <v>81</v>
       </c>
-      <c r="I117" s="0" t="n">
+      <c r="I117">
         <v>3.65</v>
       </c>
-      <c r="J117" s="0" t="n">
+      <c r="J117">
         <v>7</v>
       </c>
-      <c r="K117" s="0" t="n">
+      <c r="K117">
         <v>1500</v>
       </c>
-      <c r="L117" s="0" t="n">
+      <c r="L117">
         <v>209</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="0" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>10</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>0.8</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118">
         <v>144</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118">
         <v>0.48</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118">
         <v>0.62</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118">
         <v>72</v>
       </c>
-      <c r="I118" s="0" t="n">
+      <c r="I118">
         <v>3.74</v>
       </c>
-      <c r="J118" s="0" t="n">
+      <c r="J118">
         <v>10</v>
       </c>
-      <c r="K118" s="0" t="n">
+      <c r="K118">
         <v>695</v>
       </c>
-      <c r="L118" s="0" t="n">
+      <c r="L118">
         <v>216</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="0" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119">
         <v>11</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>0.5</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>123</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119">
         <v>0.38</v>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H119" s="0" t="n">
+      <c r="G119">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H119">
         <v>114</v>
       </c>
-      <c r="I119" s="0" t="n">
+      <c r="I119">
         <v>4</v>
       </c>
-      <c r="J119" s="0" t="n">
+      <c r="J119">
         <v>13</v>
       </c>
-      <c r="K119" s="0" t="n">
+      <c r="K119">
         <v>1620</v>
       </c>
-      <c r="L119" s="0" t="n">
+      <c r="L119">
         <v>237</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="0" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
         <v>25</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D120" s="0" t="n">
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120">
         <v>1.37</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>159</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120">
         <v>0.49</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120">
         <v>0.22</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120">
         <v>37</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="I120">
         <v>2.78</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="J120">
         <v>13</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="K120">
         <v>1590</v>
       </c>
-      <c r="L120" s="0" t="n">
+      <c r="L120">
         <v>196</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="0" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>1</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>0.36</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>171</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121">
         <v>1.6</v>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H121" s="0" t="n">
+      <c r="G121">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H121">
         <v>147</v>
       </c>
-      <c r="I121" s="0" t="n">
+      <c r="I121">
         <v>63.5</v>
       </c>
-      <c r="J121" s="0" t="n">
+      <c r="J121">
         <v>17</v>
       </c>
-      <c r="K121" s="0" t="n">
+      <c r="K121">
         <v>2450</v>
       </c>
-      <c r="L121" s="0" t="n">
+      <c r="L121">
         <v>318</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" s="0" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>2</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E122" s="0" t="n">
+      <c r="D122">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E122">
         <v>128</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122">
         <v>1.5</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122">
         <v>1.5</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122">
         <v>102</v>
       </c>
-      <c r="I122" s="0" t="n">
+      <c r="I122">
         <v>46</v>
       </c>
-      <c r="J122" s="0" t="n">
+      <c r="J122">
         <v>17</v>
       </c>
-      <c r="K122" s="0" t="n">
+      <c r="K122">
         <v>1500</v>
       </c>
-      <c r="L122" s="0" t="n">
+      <c r="L122">
         <v>230</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123" s="0" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
         <v>26</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>4</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123">
         <v>1.89</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123">
         <v>121</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123">
         <v>1.8</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123">
         <v>1.5</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123">
         <v>130</v>
       </c>
-      <c r="I123" s="0" t="n">
+      <c r="I123">
         <v>47.2</v>
       </c>
-      <c r="J123" s="0" t="n">
+      <c r="J123">
         <v>10</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K123">
         <v>1500</v>
       </c>
-      <c r="L123" s="0" t="n">
+      <c r="L123">
         <v>251</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="0" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>5</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124">
         <v>2.29</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124">
         <v>163</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124">
         <v>1.5</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="G124">
         <v>2</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124">
         <v>134</v>
       </c>
-      <c r="I124" s="0" t="n">
+      <c r="I124">
         <v>47.9</v>
       </c>
-      <c r="J124" s="0" t="n">
+      <c r="J124">
         <v>14</v>
       </c>
-      <c r="K124" s="0" t="n">
+      <c r="K124">
         <v>2000</v>
       </c>
-      <c r="L124" s="0" t="n">
+      <c r="L124">
         <v>297</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" s="0" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>6</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>1.6</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>105</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125">
         <v>1.4</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="G125">
         <v>1.63</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125">
         <v>137</v>
       </c>
-      <c r="I125" s="0" t="n">
+      <c r="I125">
         <v>45</v>
       </c>
-      <c r="J125" s="0" t="n">
+      <c r="J125">
         <v>17</v>
       </c>
-      <c r="K125" s="0" t="n">
+      <c r="K125">
         <v>1625</v>
       </c>
-      <c r="L125" s="0" t="n">
+      <c r="L125">
         <v>242</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="0" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>8</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>2.86</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>161</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126">
         <v>1.9</v>
       </c>
-      <c r="G126" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H126" s="0" t="n">
+      <c r="G126">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H126">
         <v>153</v>
       </c>
-      <c r="I126" s="0" t="n">
+      <c r="I126">
         <v>51.8</v>
       </c>
-      <c r="J126" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K126" s="0" t="n">
+      <c r="J126">
+        <v>15</v>
+      </c>
+      <c r="K126">
         <v>2300</v>
       </c>
-      <c r="L126" s="0" t="n">
+      <c r="L126">
         <v>314</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="0" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>9</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>2.48</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>153</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127">
         <v>1.6</v>
       </c>
-      <c r="G127" s="0" t="n">
+      <c r="G127">
         <v>1.38</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127">
         <v>104</v>
       </c>
-      <c r="I127" s="0" t="n">
+      <c r="I127">
         <v>48</v>
       </c>
-      <c r="J127" s="0" t="n">
+      <c r="J127">
         <v>16</v>
       </c>
-      <c r="K127" s="0" t="n">
+      <c r="K127">
         <v>1375</v>
       </c>
-      <c r="L127" s="0" t="n">
+      <c r="L127">
         <v>257</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128" s="0" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
         <v>26</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>10</v>
       </c>
-      <c r="D128" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E128" s="0" t="n">
+      <c r="D128">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E128">
         <v>120</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128">
         <v>1.2</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="G128">
         <v>1.63</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128">
         <v>126</v>
       </c>
-      <c r="I128" s="0" t="n">
+      <c r="I128">
         <v>45</v>
       </c>
-      <c r="J128" s="0" t="n">
+      <c r="J128">
         <v>14</v>
       </c>
-      <c r="K128" s="0" t="n">
+      <c r="K128">
         <v>1625</v>
       </c>
-      <c r="L128" s="0" t="n">
+      <c r="L128">
         <v>246</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="0" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>11</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>2.08</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>143</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129">
         <v>1.7</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="G129">
         <v>1.75</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129">
         <v>123</v>
       </c>
-      <c r="I129" s="0" t="n">
+      <c r="I129">
         <v>51.5</v>
       </c>
-      <c r="J129" s="0" t="n">
+      <c r="J129">
         <v>13</v>
       </c>
-      <c r="K129" s="0" t="n">
+      <c r="K129">
         <v>1750</v>
       </c>
-      <c r="L129" s="0" t="n">
+      <c r="L129">
         <v>266</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B130" s="0" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D130" s="0" t="n">
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
         <v>2.41</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>142</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130">
         <v>1.7</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130">
         <v>1.88</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130">
         <v>134</v>
       </c>
-      <c r="I130" s="0" t="n">
+      <c r="I130">
         <v>51</v>
       </c>
-      <c r="J130" s="0" t="n">
+      <c r="J130">
         <v>22</v>
       </c>
-      <c r="K130" s="0" t="n">
+      <c r="K130">
         <v>1875</v>
       </c>
-      <c r="L130" s="0" t="n">
+      <c r="L130">
         <v>276</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="0" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>1</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>2.25</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>139</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131">
         <v>1.3</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131">
         <v>3.75</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131">
         <v>187</v>
       </c>
-      <c r="I131" s="0" t="n">
+      <c r="I131">
         <v>54.11</v>
       </c>
-      <c r="J131" s="0" t="n">
+      <c r="J131">
         <v>17</v>
       </c>
-      <c r="K131" s="0" t="n">
+      <c r="K131">
         <v>6000</v>
       </c>
-      <c r="L131" s="0" t="n">
+      <c r="L131">
         <v>326</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="0" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>2</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>3</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132">
         <v>175</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132">
         <v>1.9</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="G132">
         <v>2.8</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132">
         <v>141</v>
       </c>
-      <c r="I132" s="0" t="n">
+      <c r="I132">
         <v>54.11</v>
       </c>
-      <c r="J132" s="0" t="n">
+      <c r="J132">
         <v>17</v>
       </c>
-      <c r="K132" s="0" t="n">
+      <c r="K132">
         <v>5800</v>
       </c>
-      <c r="L132" s="0" t="n">
+      <c r="L132">
         <v>316</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="0" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>3.8</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133">
         <v>195</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133">
         <v>1.6</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="G133">
         <v>5.6</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133">
         <v>174</v>
       </c>
-      <c r="I133" s="0" t="n">
+      <c r="I133">
         <v>50.93</v>
       </c>
-      <c r="J133" s="0" t="n">
+      <c r="J133">
         <v>16</v>
       </c>
-      <c r="K133" s="0" t="n">
+      <c r="K133">
         <v>9400</v>
       </c>
-      <c r="L133" s="0" t="n">
+      <c r="L133">
         <v>369</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="0" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134">
         <v>4</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>1.9</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134">
         <v>137</v>
       </c>
-      <c r="F134" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G134" s="0" t="n">
+      <c r="F134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G134">
         <v>4.2</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134">
         <v>214</v>
       </c>
-      <c r="I134" s="0" t="n">
+      <c r="I134">
         <v>41.38</v>
       </c>
-      <c r="J134" s="0" t="n">
+      <c r="J134">
         <v>13</v>
       </c>
-      <c r="K134" s="0" t="n">
+      <c r="K134">
         <v>6100</v>
       </c>
-      <c r="L134" s="0" t="n">
+      <c r="L134">
         <v>351</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="0" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>5</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135">
         <v>2.25</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135">
         <v>147</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135">
         <v>1.6</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135">
         <v>3.3</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135">
         <v>187</v>
       </c>
-      <c r="I135" s="0" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J135" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K135" s="0" t="n">
+      <c r="I135">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J135">
+        <v>12</v>
+      </c>
+      <c r="K135">
         <v>5550</v>
       </c>
-      <c r="L135" s="0" t="n">
+      <c r="L135">
         <v>334</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="0" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136">
         <v>6</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>1.9</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136">
         <v>180</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136">
         <v>1.6</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="G136">
         <v>2.25</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136">
         <v>141</v>
       </c>
-      <c r="I136" s="0" t="n">
+      <c r="I136">
         <v>41.38</v>
       </c>
-      <c r="J136" s="0" t="n">
+      <c r="J136">
         <v>13</v>
       </c>
-      <c r="K136" s="0" t="n">
+      <c r="K136">
         <v>4150</v>
       </c>
-      <c r="L136" s="0" t="n">
+      <c r="L136">
         <v>321</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="0" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>8</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>1.3</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137">
         <v>122</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G137" s="0" t="n">
+      <c r="F137">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G137">
         <v>4</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137">
         <v>197</v>
       </c>
-      <c r="I137" s="0" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J137" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K137" s="0" t="n">
+      <c r="I137">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J137">
+        <v>12</v>
+      </c>
+      <c r="K137">
         <v>5300</v>
       </c>
-      <c r="L137" s="0" t="n">
+      <c r="L137">
         <v>319</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="0" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>10</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>2.6</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138">
         <v>167</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138">
         <v>1.5</v>
       </c>
-      <c r="G138" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H138" s="0" t="n">
+      <c r="G138">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H138">
         <v>224</v>
       </c>
-      <c r="I138" s="0" t="n">
+      <c r="I138">
         <v>41.38</v>
       </c>
-      <c r="J138" s="0" t="n">
+      <c r="J138">
         <v>13</v>
       </c>
-      <c r="K138" s="0" t="n">
+      <c r="K138">
         <v>6700</v>
       </c>
-      <c r="L138" s="0" t="n">
+      <c r="L138">
         <v>391</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="0" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
         <v>27</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>11</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E139" s="0" t="n">
+      <c r="D139">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E139">
         <v>170</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139">
         <v>1.9</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139">
         <v>2.6</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139">
         <v>157</v>
       </c>
-      <c r="I139" s="0" t="n">
+      <c r="I139">
         <v>47.75</v>
       </c>
-      <c r="J139" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K139" s="0" t="n">
+      <c r="J139">
+        <v>15</v>
+      </c>
+      <c r="K139">
         <v>4800</v>
       </c>
-      <c r="L139" s="0" t="n">
+      <c r="L139">
         <v>317</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="0" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
         <v>27</v>
       </c>
-      <c r="C140" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D140" s="0" t="n">
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
         <v>2.1</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140">
         <v>194</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140">
         <v>1.4</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140">
         <v>3.75</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140">
         <v>183</v>
       </c>
-      <c r="I140" s="0" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J140" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K140" s="0" t="n">
+      <c r="I140">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J140">
+        <v>12</v>
+      </c>
+      <c r="K140">
         <v>5850</v>
       </c>
-      <c r="L140" s="0" t="n">
+      <c r="L140">
         <v>377</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="0" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>13</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141">
         <v>1.3</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141">
         <v>160</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141">
         <v>1.9</v>
       </c>
-      <c r="G141" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H141" s="0" t="n">
+      <c r="G141">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H141">
         <v>155</v>
       </c>
-      <c r="I141" s="0" t="n">
+      <c r="I141">
         <v>50.93</v>
       </c>
-      <c r="J141" s="0" t="n">
+      <c r="J141">
         <v>16</v>
       </c>
-      <c r="K141" s="0" t="n">
+      <c r="K141">
         <v>3550</v>
       </c>
-      <c r="L141" s="0" t="n">
+      <c r="L141">
         <v>297</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
